--- a/dtpu_configurations/only_integer16/80mhz/mxu_14x14/timing.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_14x14/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.857840895652771</v>
+        <v>0.29244163632392883</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.020163871347904205</v>
+        <v>0.020134449005126953</v>
       </c>
     </row>
   </sheetData>
